--- a/biology/Écologie/Écorégions_du_Québec/Écorégions_du_Québec.xlsx
+++ b/biology/Écologie/Écorégions_du_Québec/Écorégions_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gions_du_Qu%C3%A9bec</t>
+          <t>Écorégions_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les écorégions du Québec sont les régions écologiques, aussi appelées biomes ou écozones terrestres, qui composent le Québec. Selon Campbell (1995), un biome est « un ensemble d’écosystèmes variés caractéristique d’une grande zone biogéographique, nommé d’après la végétation qui y prédomine et se caractérisant par les organismes qui y sont adaptés ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gions_du_Qu%C3%A9bec</t>
+          <t>Écorégions_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorégion est l'expression des conditions écologiques du lieu à l'échelle régionale ou continentale : le climat qui induit le sol, les deux induisant eux-mêmes les conditions écologiques auxquelles vont répondre les communautés des plantes et des animaux du biome en question. Les biomes terrestres sont décrits par la science de la biogéographie.
 Le biome est fondamentalement caractérisé par son climat, en particulier températures et précipitations. C'est d'ailleurs la répartition zonale des climats qui a conduit à mettre en évidence la zonation des sol à la fin du XIXe siècle, puis des biomes. D'autres paramètres physiques peuvent intervenir, comme une altitude particulière ou un sol périodiquement submergé par exemple.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gions_du_Qu%C3%A9bec</t>
+          <t>Écorégions_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste des écorégions québécoises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1. Toundra du Moyen-Arctique (Nunavik)
 2. Toundra du Bas-Arctique (Nunavik)
